--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T21:07:13-05:00</t>
+    <t>2022-06-30T09:28:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T09:28:59-05:00</t>
+    <t>2022-06-30T15:55:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="455">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T15:55:55-05:00</t>
+    <t>2022-07-26T16:10:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1225,6 +1225,93 @@
   </si>
   <si>
     <t>&lt; 254291000 |Staging and scales|</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.id</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.extension</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>NMDP Disease Stage</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>NMDPDiseaseStage</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.nmdp.org/codesystem/diseasestage</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.coding.version</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.coding.code</t>
+  </si>
+  <si>
+    <t>http://fhir.nmdp.org/ig/matchsource/ValueSet/nmdp-diseasestage-codes</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.coding.display</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.stage.summary.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.stage.assessment</t>
@@ -1659,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1668,15 +1755,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.57421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.5859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="72.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1689,26 +1776,26 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="65.78515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="213.0390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="213.04296875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6987,7 +7074,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>75</v>
@@ -6999,13 +7086,13 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>101</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7056,19 +7143,19 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>386</v>
+        <v>102</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>384</v>
+        <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>75</v>
@@ -7080,7 +7167,7 @@
         <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>390</v>
+        <v>103</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>75</v>
@@ -7091,18 +7178,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -7114,15 +7201,17 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>392</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -7147,43 +7236,43 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>391</v>
+        <v>113</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>75</v>
@@ -7195,7 +7284,7 @@
         <v>75</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>396</v>
+        <v>103</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7206,7 +7295,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7214,7 +7303,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>77</v>
@@ -7226,21 +7315,23 @@
         <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>367</v>
+        <v>140</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>75</v>
       </c>
@@ -7276,19 +7367,19 @@
         <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
+        <v>393</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7300,7 +7391,7 @@
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>401</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>75</v>
@@ -7309,10 +7400,10 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>75</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>75</v>
@@ -7321,41 +7412,47 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7403,19 +7500,19 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>102</v>
+        <v>394</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -7424,10 +7521,10 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>75</v>
@@ -7438,18 +7535,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>75</v>
@@ -7461,17 +7558,15 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>75</v>
@@ -7520,19 +7615,19 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
@@ -7555,11 +7650,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7572,26 +7667,24 @@
         <v>75</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7627,19 +7720,19 @@
         <v>75</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>378</v>
+        <v>113</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7663,7 +7756,7 @@
         <v>75</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>75</v>
@@ -7674,7 +7767,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7682,10 +7775,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>75</v>
@@ -7697,16 +7790,20 @@
         <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>407</v>
+        <v>154</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7715,7 +7812,7 @@
         <v>75</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>75</v>
@@ -7730,13 +7827,13 @@
         <v>75</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>409</v>
+        <v>75</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>75</v>
@@ -7754,34 +7851,34 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>406</v>
+        <v>159</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>413</v>
+        <v>161</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>75</v>
@@ -7789,7 +7886,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7800,7 +7897,7 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -7812,15 +7909,17 @@
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>416</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>417</v>
+        <v>163</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>75</v>
@@ -7869,16 +7968,16 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>415</v>
+        <v>166</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
@@ -7890,13 +7989,13 @@
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>75</v>
@@ -7904,7 +8003,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7912,10 +8011,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>75</v>
@@ -7924,19 +8023,21 @@
         <v>75</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>172</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7960,13 +8061,11 @@
         <v>75</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>75</v>
@@ -7984,13 +8083,13 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>419</v>
+        <v>174</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
@@ -7999,26 +8098,1424 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="X59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="Y59" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AN54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO54" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8028,7 +9525,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -732,10 +732,27 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>NumberOfRemissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.nmdp.org/ig/matchsource/StructureDefinition/number-of-remissions}
+</t>
+  </si>
+  <si>
+    <t>Number of Remissions of Primary Diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -1746,7 +1763,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1756,7 +1773,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -4618,7 +4635,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4640,14 +4657,12 @@
         <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>75</v>
@@ -4684,19 +4699,17 @@
         <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4720,7 +4733,7 @@
         <v>75</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4731,43 +4744,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>236</v>
       </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4815,7 +4826,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4824,7 +4835,7 @@
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>114</v>
@@ -4839,7 +4850,7 @@
         <v>75</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4854,7 +4865,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4867,25 +4878,25 @@
         <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4934,7 +4945,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4946,10 +4957,10 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
@@ -4958,10 +4969,10 @@
         <v>75</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>75</v>
@@ -4969,7 +4980,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4980,30 +4991,32 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>75</v>
       </c>
@@ -5027,13 +5040,13 @@
         <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -5051,34 +5064,34 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>75</v>
@@ -5086,7 +5099,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5109,16 +5122,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5144,31 +5157,31 @@
         <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5177,33 +5190,33 @@
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>271</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5214,28 +5227,28 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5261,13 +5274,13 @@
         <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>75</v>
@@ -5285,42 +5298,42 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5331,7 +5344,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>75</v>
@@ -5343,16 +5356,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5378,13 +5391,13 @@
         <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>75</v>
@@ -5402,13 +5415,13 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>75</v>
@@ -5420,58 +5433,58 @@
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>75</v>
       </c>
@@ -5495,11 +5508,13 @@
         <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>75</v>
@@ -5517,7 +5532,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5532,41 +5547,41 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5575,18 +5590,18 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5610,13 +5625,11 @@
         <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>75</v>
@@ -5634,13 +5647,13 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>75</v>
@@ -5649,41 +5662,41 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -5692,18 +5705,18 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5727,13 +5740,13 @@
         <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -5751,13 +5764,13 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
@@ -5766,41 +5779,41 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>319</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>321</v>
+        <v>75</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>75</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5809,18 +5822,18 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5868,10 +5881,10 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5883,19 +5896,19 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>75</v>
@@ -5903,7 +5916,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5926,16 +5939,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5985,7 +5998,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -6000,19 +6013,19 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>75</v>
@@ -6020,7 +6033,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6040,19 +6053,19 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6102,7 +6115,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6111,33 +6124,33 @@
         <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>344</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>341</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6145,30 +6158,32 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>75</v>
@@ -6217,7 +6232,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6226,7 +6241,7 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6238,21 +6253,21 @@
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6260,13 +6275,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -6275,13 +6290,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6332,7 +6347,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6353,13 +6368,13 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>75</v>
@@ -6367,7 +6382,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6390,7 +6405,7 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>361</v>
@@ -6447,7 +6462,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6468,13 +6483,13 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>75</v>
@@ -6482,7 +6497,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6493,7 +6508,7 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>75</v>
@@ -6502,16 +6517,16 @@
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6562,34 +6577,34 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>75</v>
@@ -6597,7 +6612,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6608,7 +6623,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>75</v>
@@ -6620,13 +6635,13 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>101</v>
+        <v>374</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6677,19 +6692,19 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>102</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
@@ -6701,7 +6716,7 @@
         <v>75</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>103</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6712,18 +6727,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -6735,17 +6750,15 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -6794,19 +6807,19 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
@@ -6829,11 +6842,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6846,26 +6859,24 @@
         <v>75</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6913,7 +6924,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>113</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6937,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>75</v>
@@ -6952,35 +6963,39 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>75</v>
       </c>
@@ -7004,55 +7019,55 @@
         <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>384</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>75</v>
@@ -7063,7 +7078,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7086,13 +7101,13 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>101</v>
+        <v>386</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7119,13 +7134,13 @@
         <v>75</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>75</v>
@@ -7143,7 +7158,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7152,22 +7167,22 @@
         <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>75</v>
@@ -7178,18 +7193,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -7201,17 +7216,15 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -7248,31 +7261,31 @@
         <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>75</v>
@@ -7295,15 +7308,15 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>77</v>
@@ -7315,23 +7328,21 @@
         <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>389</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>390</v>
+        <v>108</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>75</v>
       </c>
@@ -7367,10 +7378,10 @@
         <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>393</v>
+        <v>111</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>75</v>
@@ -7379,7 +7390,7 @@
         <v>112</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7391,7 +7402,7 @@
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>75</v>
@@ -7400,10 +7411,10 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>396</v>
+        <v>103</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>75</v>
@@ -7412,13 +7423,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7427,10 +7436,10 @@
         <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7442,16 +7451,16 @@
         <v>140</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>75</v>
@@ -7488,19 +7497,19 @@
         <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7521,10 +7530,10 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>75</v>
@@ -7533,41 +7542,47 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7615,19 +7630,19 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>102</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
@@ -7636,10 +7651,10 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>103</v>
+        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>75</v>
@@ -7650,18 +7665,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>75</v>
@@ -7673,17 +7688,15 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>75</v>
@@ -7720,31 +7733,31 @@
         <v>75</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
@@ -7767,18 +7780,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>75</v>
@@ -7787,23 +7800,21 @@
         <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7812,7 +7823,7 @@
         <v>75</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>401</v>
+        <v>75</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>75</v>
@@ -7839,31 +7850,31 @@
         <v>75</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7872,10 +7883,10 @@
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7886,7 +7897,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7894,7 +7905,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
@@ -7909,18 +7920,20 @@
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7929,7 +7942,7 @@
         <v>75</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>75</v>
@@ -7968,7 +7981,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7989,10 +8002,10 @@
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -8003,7 +8016,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8011,7 +8024,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>86</v>
@@ -8026,18 +8039,18 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>75</v>
       </c>
@@ -8061,11 +8074,13 @@
         <v>75</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>75</v>
@@ -8083,7 +8098,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8104,10 +8119,10 @@
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -8118,7 +8133,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8126,7 +8141,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>86</v>
@@ -8141,17 +8156,17 @@
         <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>75</v>
@@ -8176,13 +8191,11 @@
         <v>75</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>75</v>
@@ -8200,7 +8213,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8221,10 +8234,10 @@
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8235,7 +8248,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8258,19 +8271,17 @@
         <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>75</v>
@@ -8319,7 +8330,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8340,10 +8351,10 @@
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>75</v>
@@ -8354,7 +8365,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8377,19 +8388,19 @@
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
+        <v>187</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>410</v>
+        <v>188</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>411</v>
+        <v>189</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>75</v>
@@ -8438,7 +8449,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>190</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8459,10 +8470,10 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>413</v>
+        <v>191</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>192</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>75</v>
@@ -8473,7 +8484,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8484,7 +8495,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>75</v>
@@ -8493,19 +8504,23 @@
         <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8553,16 +8568,16 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>384</v>
+        <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>98</v>
@@ -8574,7 +8589,7 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>419</v>
@@ -8599,7 +8614,7 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>75</v>
@@ -8611,13 +8626,13 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8644,13 +8659,13 @@
         <v>75</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>424</v>
+        <v>75</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>75</v>
@@ -8674,10 +8689,10 @@
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>98</v>
@@ -8692,7 +8707,7 @@
         <v>75</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
@@ -8703,7 +8718,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8714,7 +8729,7 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>75</v>
@@ -8726,17 +8741,15 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>367</v>
+        <v>253</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>75</v>
@@ -8761,13 +8774,13 @@
         <v>75</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -8785,31 +8798,31 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>75</v>
@@ -8820,7 +8833,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8831,7 +8844,7 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>75</v>
@@ -8843,15 +8856,17 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>372</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>100</v>
+        <v>432</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>75</v>
@@ -8900,19 +8915,19 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>102</v>
+        <v>431</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>435</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
@@ -8924,7 +8939,7 @@
         <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>103</v>
+        <v>436</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -8935,18 +8950,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>75</v>
@@ -8958,17 +8973,15 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>75</v>
@@ -9017,19 +9030,19 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>75</v>
@@ -9052,11 +9065,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9069,26 +9082,24 @@
         <v>75</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>75</v>
       </c>
@@ -9136,7 +9147,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>378</v>
+        <v>113</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9160,7 +9171,7 @@
         <v>75</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -9171,11 +9182,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9188,22 +9199,26 @@
         <v>75</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>75</v>
       </c>
@@ -9227,13 +9242,13 @@
         <v>75</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>438</v>
+        <v>75</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>439</v>
+        <v>75</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>75</v>
@@ -9251,7 +9266,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9260,25 +9275,25 @@
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>441</v>
+        <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>442</v>
+        <v>229</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>75</v>
@@ -9286,7 +9301,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9309,13 +9324,13 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9342,13 +9357,13 @@
         <v>75</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>75</v>
+        <v>443</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>75</v>
+        <v>444</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>75</v>
@@ -9366,7 +9381,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9375,25 +9390,25 @@
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>75</v>
@@ -9401,7 +9416,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9421,16 +9436,16 @@
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9481,7 +9496,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9490,32 +9505,147 @@
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>75</v>
+        <v>445</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>452</v>
+        <v>75</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AN66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO66" t="s" s="2">
+      <c r="K67" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO66">
+  <autoFilter ref="A1:AO67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9525,7 +9655,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>MSDiagnosis</t>
+    <t>MSPrimaryDiagnosis</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T10:15:20-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,10 +258,6 @@
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
   </si>
   <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -281,113 +277,113 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Condition.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Condition.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Condition.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Condition.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Condition.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Condition.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Condition.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Condition.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
   </si>
   <si>
     <t>Condition.meta.lastUpdated</t>
@@ -1190,10 +1186,6 @@
   </si>
   <si>
     <t>Clinical stage or grade of a condition. May include formal severity assessments.</t>
-  </si>
-  <si>
-    <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage/grade"]</t>
@@ -2034,19 +2026,19 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>75</v>
@@ -2057,7 +2049,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2068,28 +2060,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2139,13 +2131,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -2174,7 +2166,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2185,25 +2177,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2254,19 +2246,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -2289,7 +2281,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2300,7 +2292,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -2312,13 +2304,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2369,31 +2361,31 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>75</v>
@@ -2404,11 +2396,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2427,16 +2419,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2474,19 +2466,19 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2498,7 +2490,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -2510,7 +2502,7 @@
         <v>75</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>75</v>
@@ -2521,7 +2513,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2532,28 +2524,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2603,19 +2595,19 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -2638,7 +2630,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2649,28 +2641,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2720,19 +2712,19 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -2755,7 +2747,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2766,28 +2758,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2837,19 +2829,19 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -2872,7 +2864,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2892,19 +2884,19 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2954,7 +2946,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2966,7 +2958,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -2989,7 +2981,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2997,7 +2989,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>77</v>
@@ -3009,19 +3001,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3047,31 +3039,31 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
+      <c r="AB11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3083,7 +3075,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -3106,41 +3098,41 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="H12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3166,14 +3158,14 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>75</v>
       </c>
@@ -3190,7 +3182,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3202,7 +3194,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -3225,7 +3217,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3236,7 +3228,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -3248,13 +3240,13 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3305,31 +3297,31 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>75</v>
@@ -3340,11 +3332,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3363,16 +3355,16 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3410,19 +3402,19 @@
         <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3434,7 +3426,7 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -3446,7 +3438,7 @@
         <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>75</v>
@@ -3457,7 +3449,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3465,34 +3457,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>75</v>
@@ -3502,70 +3494,70 @@
         <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>75</v>
@@ -3576,7 +3568,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3587,28 +3579,28 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3658,31 +3650,31 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>75</v>
@@ -3693,7 +3685,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3701,32 +3693,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>75</v>
@@ -3775,31 +3767,31 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>75</v>
@@ -3810,7 +3802,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3821,29 +3813,29 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -3892,31 +3884,31 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>75</v>
@@ -3927,7 +3919,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3938,31 +3930,31 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>75</v>
@@ -4011,31 +4003,31 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>75</v>
@@ -4046,7 +4038,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4066,19 +4058,19 @@
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4104,31 +4096,31 @@
         <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4140,7 +4132,7 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -4163,7 +4155,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4174,28 +4166,28 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4245,19 +4237,19 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
@@ -4280,7 +4272,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4291,7 +4283,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>75</v>
@@ -4303,16 +4295,16 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4338,43 +4330,43 @@
         <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>75</v>
@@ -4397,18 +4389,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>75</v>
@@ -4420,16 +4412,16 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4479,31 +4471,31 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4514,11 +4506,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4537,16 +4529,16 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4596,7 +4588,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4620,7 +4612,7 @@
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4631,7 +4623,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4654,13 +4646,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4699,17 +4691,17 @@
         <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4721,7 +4713,7 @@
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>75</v>
@@ -4744,10 +4736,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>75</v>
@@ -4757,7 +4749,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>75</v>
@@ -4769,13 +4761,13 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4826,7 +4818,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4835,10 +4827,10 @@
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
@@ -4861,11 +4853,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4878,25 +4870,25 @@
         <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4945,7 +4937,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4957,7 +4949,7 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4969,7 +4961,7 @@
         <v>75</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>75</v>
@@ -4980,7 +4972,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5000,22 +4992,22 @@
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>75</v>
@@ -5064,7 +5056,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5076,22 +5068,22 @@
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>75</v>
@@ -5099,7 +5091,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5110,28 +5102,28 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5157,58 +5149,58 @@
         <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH29" t="s" s="2">
+      <c r="AI29" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>75</v>
@@ -5216,7 +5208,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5227,28 +5219,28 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5274,66 +5266,66 @@
         <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH30" t="s" s="2">
+      <c r="AI30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AI30" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5356,16 +5348,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5391,13 +5383,13 @@
         <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>75</v>
@@ -5415,7 +5407,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5427,22 +5419,22 @@
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>75</v>
@@ -5450,7 +5442,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5461,7 +5453,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>75</v>
@@ -5473,16 +5465,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5508,99 +5500,99 @@
         <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -5625,64 +5617,64 @@
         <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5702,19 +5694,19 @@
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5740,14 +5732,14 @@
         <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5764,7 +5756,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5776,63 +5768,63 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="H35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>75</v>
@@ -5881,34 +5873,34 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>75</v>
@@ -5916,7 +5908,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5927,28 +5919,28 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5998,34 +5990,34 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>75</v>
@@ -6033,7 +6025,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6044,28 +6036,28 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6115,34 +6107,34 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>75</v>
@@ -6150,7 +6142,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6161,7 +6153,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>75</v>
@@ -6173,16 +6165,16 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6232,34 +6224,34 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AI38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>75</v>
@@ -6267,7 +6259,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6275,28 +6267,28 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="H39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6347,19 +6339,19 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>75</v>
@@ -6368,13 +6360,13 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>75</v>
@@ -6382,7 +6374,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6393,25 +6385,25 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6462,19 +6454,19 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>75</v>
@@ -6486,10 +6478,10 @@
         <v>75</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>75</v>
@@ -6497,7 +6489,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6508,25 +6500,25 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6577,19 +6569,19 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>75</v>
@@ -6598,13 +6590,13 @@
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>75</v>
@@ -6612,7 +6604,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6635,13 +6627,13 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6692,7 +6684,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6704,7 +6696,7 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
@@ -6716,7 +6708,7 @@
         <v>75</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6727,7 +6719,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6738,7 +6730,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -6750,13 +6742,13 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6807,31 +6799,31 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>75</v>
@@ -6842,11 +6834,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6865,16 +6857,16 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6924,7 +6916,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6936,7 +6928,7 @@
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>75</v>
@@ -6948,7 +6940,7 @@
         <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>75</v>
@@ -6959,11 +6951,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6976,25 +6968,25 @@
         <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>75</v>
@@ -7043,7 +7035,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7055,7 +7047,7 @@
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
@@ -7067,7 +7059,7 @@
         <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>75</v>
@@ -7078,7 +7070,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7089,7 +7081,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>75</v>
@@ -7101,13 +7093,13 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7134,55 +7126,55 @@
         <v>75</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AL46" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>75</v>
@@ -7193,7 +7185,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7204,7 +7196,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -7216,13 +7208,13 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7273,31 +7265,31 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7308,11 +7300,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7331,16 +7323,16 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7378,19 +7370,19 @@
         <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB48" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB48" t="s" s="2">
+      <c r="AC48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD48" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD48" t="s" s="2">
+      <c r="AE48" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7402,7 +7394,7 @@
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>75</v>
@@ -7414,7 +7406,7 @@
         <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>75</v>
@@ -7425,7 +7417,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7433,7 +7425,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>77</v>
@@ -7445,22 +7437,22 @@
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>75</v>
@@ -7497,19 +7489,19 @@
         <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7521,7 +7513,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -7530,10 +7522,10 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>75</v>
@@ -7544,44 +7536,44 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="H50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>75</v>
@@ -7630,7 +7622,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7642,7 +7634,7 @@
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
@@ -7651,10 +7643,10 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>75</v>
@@ -7665,7 +7657,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7676,7 +7668,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>75</v>
@@ -7688,13 +7680,13 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7745,31 +7737,31 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>75</v>
@@ -7780,11 +7772,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7803,16 +7795,16 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7850,19 +7842,19 @@
         <v>75</v>
       </c>
       <c r="AA52" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB52" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB52" t="s" s="2">
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD52" t="s" s="2">
+      <c r="AE52" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7874,7 +7866,7 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7886,7 +7878,7 @@
         <v>75</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7897,7 +7889,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7905,34 +7897,34 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>75</v>
@@ -7942,7 +7934,7 @@
         <v>75</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>75</v>
@@ -7981,31 +7973,31 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -8016,7 +8008,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8027,28 +8019,28 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8098,31 +8090,31 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -8133,7 +8125,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8141,32 +8133,32 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>75</v>
@@ -8191,11 +8183,11 @@
         <v>75</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>75</v>
@@ -8213,31 +8205,31 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8248,7 +8240,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8259,29 +8251,29 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>75</v>
@@ -8330,31 +8322,31 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>75</v>
@@ -8365,7 +8357,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8376,31 +8368,31 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J57" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>75</v>
@@ -8449,31 +8441,31 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>75</v>
@@ -8484,7 +8476,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8495,31 +8487,31 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>75</v>
@@ -8568,31 +8560,31 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>75</v>
@@ -8603,7 +8595,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8626,13 +8618,13 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8683,7 +8675,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8692,10 +8684,10 @@
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
@@ -8707,7 +8699,7 @@
         <v>75</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
@@ -8718,7 +8710,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8729,7 +8721,7 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>75</v>
@@ -8741,13 +8733,13 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8774,55 +8766,55 @@
         <v>75</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>75</v>
@@ -8833,7 +8825,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8856,16 +8848,16 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8915,7 +8907,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8927,7 +8919,7 @@
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
@@ -8939,7 +8931,7 @@
         <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -8950,7 +8942,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8961,7 +8953,7 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>75</v>
@@ -8973,13 +8965,13 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9030,31 +9022,31 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -9065,11 +9057,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9088,16 +9080,16 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9147,7 +9139,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9159,7 +9151,7 @@
         <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>75</v>
@@ -9171,7 +9163,7 @@
         <v>75</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -9182,11 +9174,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9199,25 +9191,25 @@
         <v>75</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>75</v>
@@ -9266,7 +9258,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9278,7 +9270,7 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
@@ -9290,7 +9282,7 @@
         <v>75</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9301,7 +9293,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9321,16 +9313,16 @@
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9357,13 +9349,13 @@
         <v>75</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>75</v>
@@ -9381,7 +9373,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9390,25 +9382,25 @@
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AI65" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>75</v>
@@ -9416,7 +9408,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9436,16 +9428,16 @@
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9496,7 +9488,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9505,10 +9497,10 @@
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>75</v>
@@ -9520,10 +9512,10 @@
         <v>75</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>75</v>
@@ -9531,7 +9523,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9554,13 +9546,13 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9611,7 +9603,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9623,19 +9615,19 @@
         <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-msdiagnosis.xlsx
+++ b/docs/StructureDefinition-msdiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
